--- a/Code/Results/Cases/Case_5_202/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_5_202/res_bus/vm_pu.xlsx
@@ -418,37 +418,37 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C2">
-        <v>0.9972751478518747</v>
+        <v>1.025494267911823</v>
       </c>
       <c r="D2">
-        <v>1.014345283997107</v>
+        <v>1.029622293557509</v>
       </c>
       <c r="E2">
-        <v>1.004098219328052</v>
+        <v>1.025842403853385</v>
       </c>
       <c r="F2">
-        <v>0.9739850470348113</v>
+        <v>1.023994663069089</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.039056584994684</v>
+        <v>1.032300846081392</v>
       </c>
       <c r="J2">
-        <v>1.019537665353564</v>
+        <v>1.030662975878256</v>
       </c>
       <c r="K2">
-        <v>1.025608319371954</v>
+        <v>1.032435670204791</v>
       </c>
       <c r="L2">
-        <v>1.015500753195745</v>
+        <v>1.028666791903852</v>
       </c>
       <c r="M2">
-        <v>0.9858191165538417</v>
+        <v>1.026824466054024</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -456,37 +456,37 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C3">
-        <v>1.00149135755749</v>
+        <v>1.026368869764338</v>
       </c>
       <c r="D3">
-        <v>1.017291939007813</v>
+        <v>1.03025259309959</v>
       </c>
       <c r="E3">
-        <v>1.007438367325498</v>
+        <v>1.026582943201328</v>
       </c>
       <c r="F3">
-        <v>0.9808788777080661</v>
+        <v>1.025503485680593</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.040176784168602</v>
+        <v>1.032482231056694</v>
       </c>
       <c r="J3">
-        <v>1.02194144906243</v>
+        <v>1.031177321845912</v>
       </c>
       <c r="K3">
-        <v>1.027708245615332</v>
+        <v>1.032874632585069</v>
       </c>
       <c r="L3">
-        <v>1.017976949391443</v>
+        <v>1.029214901078311</v>
       </c>
       <c r="M3">
-        <v>0.9917624078437524</v>
+        <v>1.028138375758012</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -494,37 +494,37 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C4">
-        <v>1.004161669487295</v>
+        <v>1.026934971342464</v>
       </c>
       <c r="D4">
-        <v>1.019160950467716</v>
+        <v>1.030660565935474</v>
       </c>
       <c r="E4">
-        <v>1.00955954195804</v>
+        <v>1.027062656855838</v>
       </c>
       <c r="F4">
-        <v>0.9852316416425234</v>
+        <v>1.026479985932026</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.040876880322517</v>
+        <v>1.03259848946209</v>
       </c>
       <c r="J4">
-        <v>1.023459515122064</v>
+        <v>1.031509686634143</v>
       </c>
       <c r="K4">
-        <v>1.029033491743867</v>
+        <v>1.033158108933363</v>
       </c>
       <c r="L4">
-        <v>1.019543944799246</v>
+        <v>1.029569435292668</v>
       </c>
       <c r="M4">
-        <v>0.9955116374617247</v>
+        <v>1.028988266592922</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -532,37 +532,37 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C5">
-        <v>1.005270929498885</v>
+        <v>1.027173002000022</v>
       </c>
       <c r="D5">
-        <v>1.01993796410739</v>
+        <v>1.030832107136805</v>
       </c>
       <c r="E5">
-        <v>1.01044202263694</v>
+        <v>1.027264455693699</v>
       </c>
       <c r="F5">
-        <v>0.9870369756624848</v>
+        <v>1.026890556546701</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.041165427216921</v>
+        <v>1.032647098525973</v>
       </c>
       <c r="J5">
-        <v>1.024089070477746</v>
+        <v>1.031649304348574</v>
       </c>
       <c r="K5">
-        <v>1.029582845600138</v>
+        <v>1.033277147422895</v>
       </c>
       <c r="L5">
-        <v>1.020194553024937</v>
+        <v>1.029718450032269</v>
       </c>
       <c r="M5">
-        <v>0.9970658130412822</v>
+        <v>1.029345493173619</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -570,37 +570,37 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C6">
-        <v>1.005456411276229</v>
+        <v>1.027212970816792</v>
       </c>
       <c r="D6">
-        <v>1.020067925245819</v>
+        <v>1.030860911356725</v>
       </c>
       <c r="E6">
-        <v>1.010589661613219</v>
+        <v>1.027298346040234</v>
       </c>
       <c r="F6">
-        <v>0.987338694329832</v>
+        <v>1.026959496206853</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.041213541171701</v>
+        <v>1.032655244596935</v>
       </c>
       <c r="J6">
-        <v>1.024194277360351</v>
+        <v>1.031672740407389</v>
       </c>
       <c r="K6">
-        <v>1.029674635365871</v>
+        <v>1.033297126579846</v>
       </c>
       <c r="L6">
-        <v>1.020303322728688</v>
+        <v>1.029743468402982</v>
       </c>
       <c r="M6">
-        <v>0.9973255063187036</v>
+        <v>1.02940546922977</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -608,37 +608,37 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C7">
-        <v>1.004176543230334</v>
+        <v>1.026938151757118</v>
       </c>
       <c r="D7">
-        <v>1.019171366835736</v>
+        <v>1.030662857963007</v>
       </c>
       <c r="E7">
-        <v>1.009571369655254</v>
+        <v>1.027065352803054</v>
       </c>
       <c r="F7">
-        <v>0.9852558595004726</v>
+        <v>1.026485471795389</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.040880758392468</v>
+        <v>1.032599140024211</v>
       </c>
       <c r="J7">
-        <v>1.02346796083449</v>
+        <v>1.031511552639446</v>
       </c>
       <c r="K7">
-        <v>1.029040862483042</v>
+        <v>1.033159700062453</v>
       </c>
       <c r="L7">
-        <v>1.019552669940349</v>
+        <v>1.029571426559156</v>
       </c>
       <c r="M7">
-        <v>0.9955324894841932</v>
+        <v>1.028993040132974</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -646,37 +646,37 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C8">
-        <v>0.998712333225668</v>
+        <v>1.025789807018749</v>
       </c>
       <c r="D8">
-        <v>1.015349106000463</v>
+        <v>1.029835279393524</v>
       </c>
       <c r="E8">
-        <v>1.005235559876261</v>
+        <v>1.026092561238318</v>
       </c>
       <c r="F8">
-        <v>0.9763380176887199</v>
+        <v>1.024504539659673</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.03944037964934</v>
+        <v>1.03236237560627</v>
       </c>
       <c r="J8">
-        <v>1.020357954009258</v>
+        <v>1.030836894762309</v>
       </c>
       <c r="K8">
-        <v>1.026325101579695</v>
+        <v>1.032584135590784</v>
       </c>
       <c r="L8">
-        <v>1.016345076157276</v>
+        <v>1.028852054364983</v>
       </c>
       <c r="M8">
-        <v>0.987848340476387</v>
+        <v>1.027268571499022</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -684,37 +684,37 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C9">
-        <v>0.988615972842497</v>
+        <v>1.023767644504359</v>
       </c>
       <c r="D9">
-        <v>1.008310868883954</v>
+        <v>1.028377993833413</v>
       </c>
       <c r="E9">
-        <v>0.997271447827988</v>
+        <v>1.024382516626543</v>
       </c>
       <c r="F9">
-        <v>0.9597334473351657</v>
+        <v>1.02101516219413</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.036705415553952</v>
+        <v>1.031936678954321</v>
       </c>
       <c r="J9">
-        <v>1.014577235786702</v>
+        <v>1.029644619602196</v>
       </c>
       <c r="K9">
-        <v>1.021270531906149</v>
+        <v>1.031565637707621</v>
       </c>
       <c r="L9">
-        <v>1.010408949553795</v>
+        <v>1.027583463769089</v>
       </c>
       <c r="M9">
-        <v>0.9735154498761213</v>
+        <v>1.024227410010787</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -722,37 +722,37 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C10">
-        <v>0.9815334989845084</v>
+        <v>1.022420483115819</v>
       </c>
       <c r="D10">
-        <v>1.00339330916505</v>
+        <v>1.027407206774109</v>
       </c>
       <c r="E10">
-        <v>0.991719337620355</v>
+        <v>1.023245321255945</v>
       </c>
       <c r="F10">
-        <v>0.9479682011119551</v>
+        <v>1.018689508897479</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.034738705732725</v>
+        <v>1.031647190476261</v>
       </c>
       <c r="J10">
-        <v>1.010499438100272</v>
+        <v>1.028847475053409</v>
       </c>
       <c r="K10">
-        <v>1.017701565464379</v>
+        <v>1.030883789958763</v>
       </c>
       <c r="L10">
-        <v>1.006239729034636</v>
+        <v>1.026737118447284</v>
       </c>
       <c r="M10">
-        <v>0.9633450573546953</v>
+        <v>1.022198117753418</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -760,37 +760,37 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C11">
-        <v>0.9783741640447172</v>
+        <v>1.02183737702411</v>
       </c>
       <c r="D11">
-        <v>1.001205120075305</v>
+        <v>1.026987031218647</v>
       </c>
       <c r="E11">
-        <v>0.9892514857263676</v>
+        <v>1.02275358587549</v>
       </c>
       <c r="F11">
-        <v>0.9426840771734285</v>
+        <v>1.017682558812418</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.033850335489825</v>
+        <v>1.031520492088799</v>
       </c>
       <c r="J11">
-        <v>1.008675122519509</v>
+        <v>1.028501762057551</v>
       </c>
       <c r="K11">
-        <v>1.016104345326058</v>
+        <v>1.030587872124912</v>
       </c>
       <c r="L11">
-        <v>1.004378990419788</v>
+        <v>1.026370500899462</v>
       </c>
       <c r="M11">
-        <v>0.9587743617704004</v>
+        <v>1.021318923492813</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -798,37 +798,37 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C12">
-        <v>0.9771858796046944</v>
+        <v>1.021620819386394</v>
       </c>
       <c r="D12">
-        <v>1.000382983644715</v>
+        <v>1.02683098746269</v>
       </c>
       <c r="E12">
-        <v>0.9883246602558162</v>
+        <v>1.022571036080069</v>
       </c>
       <c r="F12">
-        <v>0.9406904480846751</v>
+        <v>1.01730853860371</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.033514571366874</v>
+        <v>1.031473228355481</v>
       </c>
       <c r="J12">
-        <v>1.007988171690471</v>
+        <v>1.028373267330379</v>
       </c>
       <c r="K12">
-        <v>1.015502849968835</v>
+        <v>1.03047785430962</v>
       </c>
       <c r="L12">
-        <v>1.003679012597573</v>
+        <v>1.026234301544342</v>
       </c>
       <c r="M12">
-        <v>0.9570495293558763</v>
+        <v>1.020992272568825</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -836,37 +836,37 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C13">
-        <v>0.9774414534716516</v>
+        <v>1.021667270194368</v>
       </c>
       <c r="D13">
-        <v>1.00055976617336</v>
+        <v>1.026864458090243</v>
       </c>
       <c r="E13">
-        <v>0.9885239368404772</v>
+        <v>1.022610188974348</v>
       </c>
       <c r="F13">
-        <v>0.9411195261222165</v>
+        <v>1.01738876702376</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.033586860064757</v>
+        <v>1.031483375738419</v>
       </c>
       <c r="J13">
-        <v>1.008135955447398</v>
+        <v>1.028400833571281</v>
       </c>
       <c r="K13">
-        <v>1.015632251904088</v>
+        <v>1.030501458057609</v>
       </c>
       <c r="L13">
-        <v>1.003829567498991</v>
+        <v>1.026263517724264</v>
       </c>
       <c r="M13">
-        <v>0.9574207714143729</v>
+        <v>1.02106234394648</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -874,37 +874,37 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C14">
-        <v>0.9782762465446964</v>
+        <v>1.021819475608254</v>
       </c>
       <c r="D14">
-        <v>1.001137355735258</v>
+        <v>1.026974132013807</v>
       </c>
       <c r="E14">
-        <v>0.9891750847272732</v>
+        <v>1.022738494154446</v>
       </c>
       <c r="F14">
-        <v>0.9425199275376493</v>
+        <v>1.017651642094744</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.033822700694446</v>
+        <v>1.031516589379753</v>
       </c>
       <c r="J14">
-        <v>1.008618532191916</v>
+        <v>1.028491142305175</v>
       </c>
       <c r="K14">
-        <v>1.016054795769203</v>
+        <v>1.03057878007111</v>
       </c>
       <c r="L14">
-        <v>1.004321312866476</v>
+        <v>1.026359243049819</v>
       </c>
       <c r="M14">
-        <v>0.9586323512182578</v>
+        <v>1.021291924062699</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -912,37 +912,37 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C15">
-        <v>0.9787886064482949</v>
+        <v>1.021913258892492</v>
       </c>
       <c r="D15">
-        <v>1.001491973546911</v>
+        <v>1.027041709494152</v>
       </c>
       <c r="E15">
-        <v>0.9895749146250453</v>
+        <v>1.022817560832394</v>
       </c>
       <c r="F15">
-        <v>0.9433785952032419</v>
+        <v>1.01781360872925</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.03396723531928</v>
+        <v>1.031537026598347</v>
       </c>
       <c r="J15">
-        <v>1.008914612637813</v>
+        <v>1.02854677370013</v>
       </c>
       <c r="K15">
-        <v>1.016314036707844</v>
+        <v>1.03062640737613</v>
       </c>
       <c r="L15">
-        <v>1.004623109800558</v>
+        <v>1.026418219775858</v>
       </c>
       <c r="M15">
-        <v>0.9593751945213451</v>
+        <v>1.021433365348029</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -950,37 +950,37 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C16">
-        <v>0.9817411515595561</v>
+        <v>1.022459186686942</v>
       </c>
       <c r="D16">
-        <v>1.003537250096892</v>
+        <v>1.027435096342843</v>
       </c>
       <c r="E16">
-        <v>0.9918817294811983</v>
+        <v>1.023277970460826</v>
       </c>
       <c r="F16">
-        <v>0.9483146977507326</v>
+        <v>1.018756337964193</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.034796867591332</v>
+        <v>1.031655570648438</v>
       </c>
       <c r="J16">
-        <v>1.010619234372314</v>
+        <v>1.028870407441053</v>
       </c>
       <c r="K16">
-        <v>1.017806439851245</v>
+        <v>1.030903414899692</v>
       </c>
       <c r="L16">
-        <v>1.00636201145626</v>
+        <v>1.02676144663982</v>
       </c>
       <c r="M16">
-        <v>0.9636447176764303</v>
+        <v>1.022256456135106</v>
       </c>
     </row>
     <row r="17" spans="1:13">
@@ -988,37 +988,37 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C17">
-        <v>0.9835678364020395</v>
+        <v>1.022801692882924</v>
       </c>
       <c r="D17">
-        <v>1.00480409921756</v>
+        <v>1.027681906763555</v>
       </c>
       <c r="E17">
-        <v>0.9933112729889947</v>
+        <v>1.023566955268178</v>
       </c>
       <c r="F17">
-        <v>0.9513586022159042</v>
+        <v>1.019347703092766</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.035307253223847</v>
+        <v>1.031729569455788</v>
       </c>
       <c r="J17">
-        <v>1.011672460177183</v>
+        <v>1.029073268812649</v>
       </c>
       <c r="K17">
-        <v>1.018728416256326</v>
+        <v>1.031076994429246</v>
       </c>
       <c r="L17">
-        <v>1.007437605109033</v>
+        <v>1.026976705415614</v>
       </c>
       <c r="M17">
-        <v>0.9662768560787485</v>
+        <v>1.022772623053222</v>
       </c>
     </row>
     <row r="18" spans="1:13">
@@ -1026,37 +1026,37 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C18">
-        <v>0.9846244401261626</v>
+        <v>1.023001492512661</v>
       </c>
       <c r="D18">
-        <v>1.005537388606473</v>
+        <v>1.027825884575072</v>
       </c>
       <c r="E18">
-        <v>0.9941389919564504</v>
+        <v>1.023735580553874</v>
       </c>
       <c r="F18">
-        <v>0.9531159304083732</v>
+        <v>1.019692643766912</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.035601423273494</v>
+        <v>1.031772601635202</v>
       </c>
       <c r="J18">
-        <v>1.012281171817611</v>
+        <v>1.029191541901547</v>
       </c>
       <c r="K18">
-        <v>1.019261219196626</v>
+        <v>1.031178175446175</v>
       </c>
       <c r="L18">
-        <v>1.00805966680668</v>
+        <v>1.027102248253101</v>
       </c>
       <c r="M18">
-        <v>0.9677961856334218</v>
+        <v>1.023073646789194</v>
       </c>
     </row>
     <row r="19" spans="1:13">
@@ -1064,37 +1064,37 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C19">
-        <v>0.9849832349523866</v>
+        <v>1.023069622670281</v>
       </c>
       <c r="D19">
-        <v>1.005786478903192</v>
+        <v>1.027874980224734</v>
       </c>
       <c r="E19">
-        <v>0.9944202031813275</v>
+        <v>1.023793088476459</v>
       </c>
       <c r="F19">
-        <v>0.9537121266957715</v>
+        <v>1.019810261032826</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.035701136534366</v>
+        <v>1.031787252427435</v>
       </c>
       <c r="J19">
-        <v>1.012487788863661</v>
+        <v>1.029231861053738</v>
       </c>
       <c r="K19">
-        <v>1.019442060597088</v>
+        <v>1.031212664523428</v>
       </c>
       <c r="L19">
-        <v>1.008270886553712</v>
+        <v>1.027145052734709</v>
       </c>
       <c r="M19">
-        <v>0.9683115894637625</v>
+        <v>1.023176280145215</v>
       </c>
     </row>
     <row r="20" spans="1:13">
@@ -1102,37 +1102,37 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C20">
-        <v>0.9833727739062366</v>
+        <v>1.022764942977026</v>
       </c>
       <c r="D20">
-        <v>1.00466876540412</v>
+        <v>1.027655424528026</v>
       </c>
       <c r="E20">
-        <v>0.9931585324575807</v>
+        <v>1.023535943169338</v>
       </c>
       <c r="F20">
-        <v>0.9510339116459895</v>
+        <v>1.019284254481996</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.035252860523181</v>
+        <v>1.031721643536614</v>
       </c>
       <c r="J20">
-        <v>1.011560043594628</v>
+        <v>1.029051509137722</v>
       </c>
       <c r="K20">
-        <v>1.018630013994832</v>
+        <v>1.031058377707361</v>
       </c>
       <c r="L20">
-        <v>1.007322757115754</v>
+        <v>1.026953611627432</v>
       </c>
       <c r="M20">
-        <v>0.9659961163710986</v>
+        <v>1.022717248191797</v>
       </c>
     </row>
     <row r="21" spans="1:13">
@@ -1140,37 +1140,37 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C21">
-        <v>0.9780308356907222</v>
+        <v>1.021774653968343</v>
       </c>
       <c r="D21">
-        <v>1.000967532252945</v>
+        <v>1.026941834992789</v>
       </c>
       <c r="E21">
-        <v>0.9889836231316997</v>
+        <v>1.02270070863764</v>
       </c>
       <c r="F21">
-        <v>0.9421084167253592</v>
+        <v>1.017574231816845</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.033753413370645</v>
+        <v>1.031506814373332</v>
       </c>
       <c r="J21">
-        <v>1.008476686980853</v>
+        <v>1.028464550882709</v>
       </c>
       <c r="K21">
-        <v>1.015930597594766</v>
+        <v>1.030556013443553</v>
       </c>
       <c r="L21">
-        <v>1.004176753630913</v>
+        <v>1.026331054911207</v>
       </c>
       <c r="M21">
-        <v>0.9582763356851268</v>
+        <v>1.021224320656898</v>
       </c>
     </row>
     <row r="22" spans="1:13">
@@ -1178,37 +1178,37 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C22">
-        <v>0.97458623032157</v>
+        <v>1.021152216416243</v>
       </c>
       <c r="D22">
-        <v>0.9985860670813196</v>
+        <v>1.026493336240646</v>
       </c>
       <c r="E22">
-        <v>0.9862996122594864</v>
+        <v>1.022176157652847</v>
       </c>
       <c r="F22">
-        <v>0.9363166287316548</v>
+        <v>1.016499104223017</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.032777041650012</v>
+        <v>1.031370572344432</v>
       </c>
       <c r="J22">
-        <v>1.006483852357102</v>
+        <v>1.028095035345997</v>
       </c>
       <c r="K22">
-        <v>1.014185586393571</v>
+        <v>1.030239574340785</v>
       </c>
       <c r="L22">
-        <v>1.002147451454664</v>
+        <v>1.025939505916215</v>
       </c>
       <c r="M22">
-        <v>0.9532648131485062</v>
+        <v>1.020285198477666</v>
       </c>
     </row>
     <row r="23" spans="1:13">
@@ -1216,37 +1216,37 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C23">
-        <v>0.9764207311392266</v>
+        <v>1.021482163611206</v>
       </c>
       <c r="D23">
-        <v>0.9998538587535781</v>
+        <v>1.026731078148558</v>
       </c>
       <c r="E23">
-        <v>0.9877282635226227</v>
+        <v>1.022454175474018</v>
       </c>
       <c r="F23">
-        <v>0.9394048858092204</v>
+        <v>1.017069048421856</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.033297913489172</v>
+        <v>1.031442907694298</v>
       </c>
       <c r="J23">
-        <v>1.007545614211267</v>
+        <v>1.028290967150499</v>
       </c>
       <c r="K23">
-        <v>1.015115332650606</v>
+        <v>1.030407379804077</v>
       </c>
       <c r="L23">
-        <v>1.003228258725156</v>
+        <v>1.026147084953182</v>
       </c>
       <c r="M23">
-        <v>0.9559372004200526</v>
+        <v>1.020783089901524</v>
       </c>
     </row>
     <row r="24" spans="1:13">
@@ -1254,37 +1254,37 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C24">
-        <v>0.9834609416018354</v>
+        <v>1.022781548610935</v>
       </c>
       <c r="D24">
-        <v>1.004729934328762</v>
+        <v>1.027667390656419</v>
       </c>
       <c r="E24">
-        <v>0.9932275681675254</v>
+        <v>1.023549956000056</v>
       </c>
       <c r="F24">
-        <v>0.9511806811894408</v>
+        <v>1.019312924154016</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.035277449130717</v>
+        <v>1.03172522532021</v>
       </c>
       <c r="J24">
-        <v>1.011610857130367</v>
+        <v>1.0290613415604</v>
       </c>
       <c r="K24">
-        <v>1.018674493069446</v>
+        <v>1.031066790003412</v>
       </c>
       <c r="L24">
-        <v>1.007374668366212</v>
+        <v>1.02696404675938</v>
       </c>
       <c r="M24">
-        <v>0.9661230197095287</v>
+        <v>1.022742269854413</v>
       </c>
     </row>
     <row r="25" spans="1:13">
@@ -1292,37 +1292,37 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C25">
-        <v>0.9912851973928137</v>
+        <v>1.024290257077637</v>
       </c>
       <c r="D25">
-        <v>1.010168455483404</v>
+        <v>1.028754611257463</v>
       </c>
       <c r="E25">
-        <v>0.999371193843584</v>
+        <v>1.024824108352123</v>
       </c>
       <c r="F25">
-        <v>0.9641410449400774</v>
+        <v>1.021917125289942</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.037436879139267</v>
+        <v>1.032047735924609</v>
       </c>
       <c r="J25">
-        <v>1.016109451400007</v>
+        <v>1.029953257143898</v>
       </c>
       <c r="K25">
-        <v>1.022610943729409</v>
+        <v>1.031829448066556</v>
       </c>
       <c r="L25">
-        <v>1.01197927906663</v>
+        <v>1.027911536033722</v>
       </c>
       <c r="M25">
-        <v>0.977322759075029</v>
+        <v>1.025013933357988</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_5_202/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_5_202/res_bus/vm_pu.xlsx
@@ -418,37 +418,37 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.025494267911823</v>
+        <v>0.9972751478518749</v>
       </c>
       <c r="D2">
-        <v>1.029622293557509</v>
+        <v>1.014345283997107</v>
       </c>
       <c r="E2">
-        <v>1.025842403853385</v>
+        <v>1.004098219328052</v>
       </c>
       <c r="F2">
-        <v>1.023994663069089</v>
+        <v>0.9739850470348115</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.032300846081392</v>
+        <v>1.039056584994684</v>
       </c>
       <c r="J2">
-        <v>1.030662975878256</v>
+        <v>1.019537665353564</v>
       </c>
       <c r="K2">
-        <v>1.032435670204791</v>
+        <v>1.025608319371955</v>
       </c>
       <c r="L2">
-        <v>1.028666791903852</v>
+        <v>1.015500753195745</v>
       </c>
       <c r="M2">
-        <v>1.026824466054024</v>
+        <v>0.985819116553842</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -456,37 +456,37 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.026368869764338</v>
+        <v>1.00149135755749</v>
       </c>
       <c r="D3">
-        <v>1.03025259309959</v>
+        <v>1.017291939007813</v>
       </c>
       <c r="E3">
-        <v>1.026582943201328</v>
+        <v>1.007438367325498</v>
       </c>
       <c r="F3">
-        <v>1.025503485680593</v>
+        <v>0.9808788777080663</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.032482231056694</v>
+        <v>1.040176784168603</v>
       </c>
       <c r="J3">
-        <v>1.031177321845912</v>
+        <v>1.02194144906243</v>
       </c>
       <c r="K3">
-        <v>1.032874632585069</v>
+        <v>1.027708245615332</v>
       </c>
       <c r="L3">
-        <v>1.029214901078311</v>
+        <v>1.017976949391443</v>
       </c>
       <c r="M3">
-        <v>1.028138375758012</v>
+        <v>0.9917624078437527</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -494,37 +494,37 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.026934971342464</v>
+        <v>1.004161669487294</v>
       </c>
       <c r="D4">
-        <v>1.030660565935474</v>
+        <v>1.019160950467715</v>
       </c>
       <c r="E4">
-        <v>1.027062656855838</v>
+        <v>1.00955954195804</v>
       </c>
       <c r="F4">
-        <v>1.026479985932026</v>
+        <v>0.9852316416425231</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.03259848946209</v>
+        <v>1.040876880322517</v>
       </c>
       <c r="J4">
-        <v>1.031509686634143</v>
+        <v>1.023459515122064</v>
       </c>
       <c r="K4">
-        <v>1.033158108933363</v>
+        <v>1.029033491743867</v>
       </c>
       <c r="L4">
-        <v>1.029569435292668</v>
+        <v>1.019543944799245</v>
       </c>
       <c r="M4">
-        <v>1.028988266592922</v>
+        <v>0.9955116374617242</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -532,37 +532,37 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.027173002000022</v>
+        <v>1.005270929498885</v>
       </c>
       <c r="D5">
-        <v>1.030832107136805</v>
+        <v>1.01993796410739</v>
       </c>
       <c r="E5">
-        <v>1.027264455693699</v>
+        <v>1.01044202263694</v>
       </c>
       <c r="F5">
-        <v>1.026890556546701</v>
+        <v>0.9870369756624844</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.032647098525973</v>
+        <v>1.041165427216921</v>
       </c>
       <c r="J5">
-        <v>1.031649304348574</v>
+        <v>1.024089070477745</v>
       </c>
       <c r="K5">
-        <v>1.033277147422895</v>
+        <v>1.029582845600138</v>
       </c>
       <c r="L5">
-        <v>1.029718450032269</v>
+        <v>1.020194553024937</v>
       </c>
       <c r="M5">
-        <v>1.029345493173619</v>
+        <v>0.9970658130412817</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -570,37 +570,37 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.027212970816792</v>
+        <v>1.005456411276229</v>
       </c>
       <c r="D6">
-        <v>1.030860911356725</v>
+        <v>1.020067925245818</v>
       </c>
       <c r="E6">
-        <v>1.027298346040234</v>
+        <v>1.010589661613218</v>
       </c>
       <c r="F6">
-        <v>1.026959496206853</v>
+        <v>0.9873386943298318</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.032655244596935</v>
+        <v>1.041213541171701</v>
       </c>
       <c r="J6">
-        <v>1.031672740407389</v>
+        <v>1.02419427736035</v>
       </c>
       <c r="K6">
-        <v>1.033297126579846</v>
+        <v>1.029674635365871</v>
       </c>
       <c r="L6">
-        <v>1.029743468402982</v>
+        <v>1.020303322728687</v>
       </c>
       <c r="M6">
-        <v>1.02940546922977</v>
+        <v>0.9973255063187032</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -608,37 +608,37 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.026938151757118</v>
+        <v>1.004176543230335</v>
       </c>
       <c r="D7">
-        <v>1.030662857963007</v>
+        <v>1.019171366835736</v>
       </c>
       <c r="E7">
-        <v>1.027065352803054</v>
+        <v>1.009571369655254</v>
       </c>
       <c r="F7">
-        <v>1.026485471795389</v>
+        <v>0.9852558595004727</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.032599140024211</v>
+        <v>1.040880758392468</v>
       </c>
       <c r="J7">
-        <v>1.031511552639446</v>
+        <v>1.02346796083449</v>
       </c>
       <c r="K7">
-        <v>1.033159700062453</v>
+        <v>1.029040862483042</v>
       </c>
       <c r="L7">
-        <v>1.029571426559156</v>
+        <v>1.019552669940349</v>
       </c>
       <c r="M7">
-        <v>1.028993040132974</v>
+        <v>0.9955324894841933</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -646,37 +646,37 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.025789807018749</v>
+        <v>0.9987123332256677</v>
       </c>
       <c r="D8">
-        <v>1.029835279393524</v>
+        <v>1.015349106000462</v>
       </c>
       <c r="E8">
-        <v>1.026092561238318</v>
+        <v>1.00523555987626</v>
       </c>
       <c r="F8">
-        <v>1.024504539659673</v>
+        <v>0.9763380176887195</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.03236237560627</v>
+        <v>1.039440379649339</v>
       </c>
       <c r="J8">
-        <v>1.030836894762309</v>
+        <v>1.020357954009257</v>
       </c>
       <c r="K8">
-        <v>1.032584135590784</v>
+        <v>1.026325101579694</v>
       </c>
       <c r="L8">
-        <v>1.028852054364983</v>
+        <v>1.016345076157276</v>
       </c>
       <c r="M8">
-        <v>1.027268571499022</v>
+        <v>0.9878483404763866</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -684,37 +684,37 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.023767644504359</v>
+        <v>0.988615972842497</v>
       </c>
       <c r="D9">
-        <v>1.028377993833413</v>
+        <v>1.008310868883954</v>
       </c>
       <c r="E9">
-        <v>1.024382516626543</v>
+        <v>0.9972714478279878</v>
       </c>
       <c r="F9">
-        <v>1.02101516219413</v>
+        <v>0.9597334473351659</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.031936678954321</v>
+        <v>1.036705415553952</v>
       </c>
       <c r="J9">
-        <v>1.029644619602196</v>
+        <v>1.014577235786702</v>
       </c>
       <c r="K9">
-        <v>1.031565637707621</v>
+        <v>1.021270531906149</v>
       </c>
       <c r="L9">
-        <v>1.027583463769089</v>
+        <v>1.010408949553795</v>
       </c>
       <c r="M9">
-        <v>1.024227410010787</v>
+        <v>0.9735154498761215</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -722,37 +722,37 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.022420483115819</v>
+        <v>0.9815334989845088</v>
       </c>
       <c r="D10">
-        <v>1.027407206774109</v>
+        <v>1.003393309165051</v>
       </c>
       <c r="E10">
-        <v>1.023245321255945</v>
+        <v>0.9917193376203554</v>
       </c>
       <c r="F10">
-        <v>1.018689508897479</v>
+        <v>0.9479682011119557</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.031647190476261</v>
+        <v>1.034738705732725</v>
       </c>
       <c r="J10">
-        <v>1.028847475053409</v>
+        <v>1.010499438100273</v>
       </c>
       <c r="K10">
-        <v>1.030883789958763</v>
+        <v>1.01770156546438</v>
       </c>
       <c r="L10">
-        <v>1.026737118447284</v>
+        <v>1.006239729034637</v>
       </c>
       <c r="M10">
-        <v>1.022198117753418</v>
+        <v>0.9633450573546961</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -760,37 +760,37 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C11">
-        <v>1.02183737702411</v>
+        <v>0.9783741640447173</v>
       </c>
       <c r="D11">
-        <v>1.026987031218647</v>
+        <v>1.001205120075304</v>
       </c>
       <c r="E11">
-        <v>1.02275358587549</v>
+        <v>0.9892514857263677</v>
       </c>
       <c r="F11">
-        <v>1.017682558812418</v>
+        <v>0.9426840771734295</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.031520492088799</v>
+        <v>1.033850335489826</v>
       </c>
       <c r="J11">
-        <v>1.028501762057551</v>
+        <v>1.008675122519509</v>
       </c>
       <c r="K11">
-        <v>1.030587872124912</v>
+        <v>1.016104345326058</v>
       </c>
       <c r="L11">
-        <v>1.026370500899462</v>
+        <v>1.004378990419789</v>
       </c>
       <c r="M11">
-        <v>1.021318923492813</v>
+        <v>0.9587743617704013</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -798,37 +798,37 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C12">
-        <v>1.021620819386394</v>
+        <v>0.9771858796046948</v>
       </c>
       <c r="D12">
-        <v>1.02683098746269</v>
+        <v>1.000382983644715</v>
       </c>
       <c r="E12">
-        <v>1.022571036080069</v>
+        <v>0.9883246602558163</v>
       </c>
       <c r="F12">
-        <v>1.01730853860371</v>
+        <v>0.9406904480846747</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.031473228355481</v>
+        <v>1.033514571366874</v>
       </c>
       <c r="J12">
-        <v>1.028373267330379</v>
+        <v>1.007988171690472</v>
       </c>
       <c r="K12">
-        <v>1.03047785430962</v>
+        <v>1.015502849968836</v>
       </c>
       <c r="L12">
-        <v>1.026234301544342</v>
+        <v>1.003679012597573</v>
       </c>
       <c r="M12">
-        <v>1.020992272568825</v>
+        <v>0.9570495293558761</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -836,37 +836,37 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C13">
-        <v>1.021667270194368</v>
+        <v>0.9774414534716513</v>
       </c>
       <c r="D13">
-        <v>1.026864458090243</v>
+        <v>1.00055976617336</v>
       </c>
       <c r="E13">
-        <v>1.022610188974348</v>
+        <v>0.9885239368404767</v>
       </c>
       <c r="F13">
-        <v>1.01738876702376</v>
+        <v>0.9411195261222165</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.031483375738419</v>
+        <v>1.033586860064757</v>
       </c>
       <c r="J13">
-        <v>1.028400833571281</v>
+        <v>1.008135955447398</v>
       </c>
       <c r="K13">
-        <v>1.030501458057609</v>
+        <v>1.015632251904087</v>
       </c>
       <c r="L13">
-        <v>1.026263517724264</v>
+        <v>1.00382956749899</v>
       </c>
       <c r="M13">
-        <v>1.02106234394648</v>
+        <v>0.957420771414373</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -874,37 +874,37 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.021819475608254</v>
+        <v>0.9782762465446959</v>
       </c>
       <c r="D14">
-        <v>1.026974132013807</v>
+        <v>1.001137355735257</v>
       </c>
       <c r="E14">
-        <v>1.022738494154446</v>
+        <v>0.9891750847272726</v>
       </c>
       <c r="F14">
-        <v>1.017651642094744</v>
+        <v>0.9425199275376492</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.031516589379753</v>
+        <v>1.033822700694446</v>
       </c>
       <c r="J14">
-        <v>1.028491142305175</v>
+        <v>1.008618532191915</v>
       </c>
       <c r="K14">
-        <v>1.03057878007111</v>
+        <v>1.016054795769202</v>
       </c>
       <c r="L14">
-        <v>1.026359243049819</v>
+        <v>1.004321312866475</v>
       </c>
       <c r="M14">
-        <v>1.021291924062699</v>
+        <v>0.9586323512182575</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -912,37 +912,37 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.021913258892492</v>
+        <v>0.978788606448295</v>
       </c>
       <c r="D15">
-        <v>1.027041709494152</v>
+        <v>1.001491973546911</v>
       </c>
       <c r="E15">
-        <v>1.022817560832394</v>
+        <v>0.9895749146250454</v>
       </c>
       <c r="F15">
-        <v>1.01781360872925</v>
+        <v>0.9433785952032417</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.031537026598347</v>
+        <v>1.03396723531928</v>
       </c>
       <c r="J15">
-        <v>1.02854677370013</v>
+        <v>1.008914612637813</v>
       </c>
       <c r="K15">
-        <v>1.03062640737613</v>
+        <v>1.016314036707844</v>
       </c>
       <c r="L15">
-        <v>1.026418219775858</v>
+        <v>1.004623109800558</v>
       </c>
       <c r="M15">
-        <v>1.021433365348029</v>
+        <v>0.959375194521345</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -950,37 +950,37 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.022459186686942</v>
+        <v>0.9817411515595559</v>
       </c>
       <c r="D16">
-        <v>1.027435096342843</v>
+        <v>1.003537250096892</v>
       </c>
       <c r="E16">
-        <v>1.023277970460826</v>
+        <v>0.9918817294811981</v>
       </c>
       <c r="F16">
-        <v>1.018756337964193</v>
+        <v>0.9483146977507323</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.031655570648438</v>
+        <v>1.034796867591332</v>
       </c>
       <c r="J16">
-        <v>1.028870407441053</v>
+        <v>1.010619234372314</v>
       </c>
       <c r="K16">
-        <v>1.030903414899692</v>
+        <v>1.017806439851245</v>
       </c>
       <c r="L16">
-        <v>1.02676144663982</v>
+        <v>1.00636201145626</v>
       </c>
       <c r="M16">
-        <v>1.022256456135106</v>
+        <v>0.9636447176764301</v>
       </c>
     </row>
     <row r="17" spans="1:13">
@@ -988,37 +988,37 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.022801692882924</v>
+        <v>0.9835678364020395</v>
       </c>
       <c r="D17">
-        <v>1.027681906763555</v>
+        <v>1.00480409921756</v>
       </c>
       <c r="E17">
-        <v>1.023566955268178</v>
+        <v>0.9933112729889945</v>
       </c>
       <c r="F17">
-        <v>1.019347703092766</v>
+        <v>0.951358602215904</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.031729569455788</v>
+        <v>1.035307253223846</v>
       </c>
       <c r="J17">
-        <v>1.029073268812649</v>
+        <v>1.011672460177183</v>
       </c>
       <c r="K17">
-        <v>1.031076994429246</v>
+        <v>1.018728416256326</v>
       </c>
       <c r="L17">
-        <v>1.026976705415614</v>
+        <v>1.007437605109033</v>
       </c>
       <c r="M17">
-        <v>1.022772623053222</v>
+        <v>0.966276856078748</v>
       </c>
     </row>
     <row r="18" spans="1:13">
@@ -1026,37 +1026,37 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.023001492512661</v>
+        <v>0.984624440126163</v>
       </c>
       <c r="D18">
-        <v>1.027825884575072</v>
+        <v>1.005537388606474</v>
       </c>
       <c r="E18">
-        <v>1.023735580553874</v>
+        <v>0.9941389919564509</v>
       </c>
       <c r="F18">
-        <v>1.019692643766912</v>
+        <v>0.9531159304083734</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.031772601635202</v>
+        <v>1.035601423273494</v>
       </c>
       <c r="J18">
-        <v>1.029191541901547</v>
+        <v>1.012281171817612</v>
       </c>
       <c r="K18">
-        <v>1.031178175446175</v>
+        <v>1.019261219196627</v>
       </c>
       <c r="L18">
-        <v>1.027102248253101</v>
+        <v>1.00805966680668</v>
       </c>
       <c r="M18">
-        <v>1.023073646789194</v>
+        <v>0.967796185633422</v>
       </c>
     </row>
     <row r="19" spans="1:13">
@@ -1064,37 +1064,37 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.023069622670281</v>
+        <v>0.9849832349523869</v>
       </c>
       <c r="D19">
-        <v>1.027874980224734</v>
+        <v>1.005786478903193</v>
       </c>
       <c r="E19">
-        <v>1.023793088476459</v>
+        <v>0.9944202031813278</v>
       </c>
       <c r="F19">
-        <v>1.019810261032826</v>
+        <v>0.9537121266957718</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.031787252427435</v>
+        <v>1.035701136534366</v>
       </c>
       <c r="J19">
-        <v>1.029231861053738</v>
+        <v>1.012487788863661</v>
       </c>
       <c r="K19">
-        <v>1.031212664523428</v>
+        <v>1.019442060597088</v>
       </c>
       <c r="L19">
-        <v>1.027145052734709</v>
+        <v>1.008270886553712</v>
       </c>
       <c r="M19">
-        <v>1.023176280145215</v>
+        <v>0.9683115894637627</v>
       </c>
     </row>
     <row r="20" spans="1:13">
@@ -1102,37 +1102,37 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.022764942977026</v>
+        <v>0.9833727739062373</v>
       </c>
       <c r="D20">
-        <v>1.027655424528026</v>
+        <v>1.00466876540412</v>
       </c>
       <c r="E20">
-        <v>1.023535943169338</v>
+        <v>0.9931585324575815</v>
       </c>
       <c r="F20">
-        <v>1.019284254481996</v>
+        <v>0.9510339116459905</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.031721643536614</v>
+        <v>1.035252860523181</v>
       </c>
       <c r="J20">
-        <v>1.029051509137722</v>
+        <v>1.011560043594629</v>
       </c>
       <c r="K20">
-        <v>1.031058377707361</v>
+        <v>1.018630013994833</v>
       </c>
       <c r="L20">
-        <v>1.026953611627432</v>
+        <v>1.007322757115755</v>
       </c>
       <c r="M20">
-        <v>1.022717248191797</v>
+        <v>0.9659961163710995</v>
       </c>
     </row>
     <row r="21" spans="1:13">
@@ -1140,37 +1140,37 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C21">
-        <v>1.021774653968343</v>
+        <v>0.9780308356907226</v>
       </c>
       <c r="D21">
-        <v>1.026941834992789</v>
+        <v>1.000967532252945</v>
       </c>
       <c r="E21">
-        <v>1.02270070863764</v>
+        <v>0.9889836231317001</v>
       </c>
       <c r="F21">
-        <v>1.017574231816845</v>
+        <v>0.9421084167253594</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.031506814373332</v>
+        <v>1.033753413370645</v>
       </c>
       <c r="J21">
-        <v>1.028464550882709</v>
+        <v>1.008476686980853</v>
       </c>
       <c r="K21">
-        <v>1.030556013443553</v>
+        <v>1.015930597594766</v>
       </c>
       <c r="L21">
-        <v>1.026331054911207</v>
+        <v>1.004176753630913</v>
       </c>
       <c r="M21">
-        <v>1.021224320656898</v>
+        <v>0.9582763356851272</v>
       </c>
     </row>
     <row r="22" spans="1:13">
@@ -1178,37 +1178,37 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C22">
-        <v>1.021152216416243</v>
+        <v>0.97458623032157</v>
       </c>
       <c r="D22">
-        <v>1.026493336240646</v>
+        <v>0.9985860670813196</v>
       </c>
       <c r="E22">
-        <v>1.022176157652847</v>
+        <v>0.9862996122594861</v>
       </c>
       <c r="F22">
-        <v>1.016499104223017</v>
+        <v>0.9363166287316543</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.031370572344432</v>
+        <v>1.032777041650012</v>
       </c>
       <c r="J22">
-        <v>1.028095035345997</v>
+        <v>1.006483852357102</v>
       </c>
       <c r="K22">
-        <v>1.030239574340785</v>
+        <v>1.014185586393572</v>
       </c>
       <c r="L22">
-        <v>1.025939505916215</v>
+        <v>1.002147451454664</v>
       </c>
       <c r="M22">
-        <v>1.020285198477666</v>
+        <v>0.9532648131485058</v>
       </c>
     </row>
     <row r="23" spans="1:13">
@@ -1216,37 +1216,37 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C23">
-        <v>1.021482163611206</v>
+        <v>0.9764207311392257</v>
       </c>
       <c r="D23">
-        <v>1.026731078148558</v>
+        <v>0.999853858753577</v>
       </c>
       <c r="E23">
-        <v>1.022454175474018</v>
+        <v>0.9877282635226214</v>
       </c>
       <c r="F23">
-        <v>1.017069048421856</v>
+        <v>0.9394048858092195</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.031442907694298</v>
+        <v>1.033297913489171</v>
       </c>
       <c r="J23">
-        <v>1.028290967150499</v>
+        <v>1.007545614211266</v>
       </c>
       <c r="K23">
-        <v>1.030407379804077</v>
+        <v>1.015115332650605</v>
       </c>
       <c r="L23">
-        <v>1.026147084953182</v>
+        <v>1.003228258725155</v>
       </c>
       <c r="M23">
-        <v>1.020783089901524</v>
+        <v>0.9559372004200515</v>
       </c>
     </row>
     <row r="24" spans="1:13">
@@ -1254,37 +1254,37 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.022781548610935</v>
+        <v>0.9834609416018359</v>
       </c>
       <c r="D24">
-        <v>1.027667390656419</v>
+        <v>1.004729934328763</v>
       </c>
       <c r="E24">
-        <v>1.023549956000056</v>
+        <v>0.9932275681675257</v>
       </c>
       <c r="F24">
-        <v>1.019312924154016</v>
+        <v>0.9511806811894412</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.03172522532021</v>
+        <v>1.035277449130717</v>
       </c>
       <c r="J24">
-        <v>1.0290613415604</v>
+        <v>1.011610857130368</v>
       </c>
       <c r="K24">
-        <v>1.031066790003412</v>
+        <v>1.018674493069446</v>
       </c>
       <c r="L24">
-        <v>1.02696404675938</v>
+        <v>1.007374668366212</v>
       </c>
       <c r="M24">
-        <v>1.022742269854413</v>
+        <v>0.9661230197095293</v>
       </c>
     </row>
     <row r="25" spans="1:13">
@@ -1292,37 +1292,37 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.024290257077637</v>
+        <v>0.9912851973928135</v>
       </c>
       <c r="D25">
-        <v>1.028754611257463</v>
+        <v>1.010168455483404</v>
       </c>
       <c r="E25">
-        <v>1.024824108352123</v>
+        <v>0.9993711938435837</v>
       </c>
       <c r="F25">
-        <v>1.021917125289942</v>
+        <v>0.9641410449400778</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.032047735924609</v>
+        <v>1.037436879139267</v>
       </c>
       <c r="J25">
-        <v>1.029953257143898</v>
+        <v>1.016109451400007</v>
       </c>
       <c r="K25">
-        <v>1.031829448066556</v>
+        <v>1.022610943729409</v>
       </c>
       <c r="L25">
-        <v>1.027911536033722</v>
+        <v>1.01197927906663</v>
       </c>
       <c r="M25">
-        <v>1.025013933357988</v>
+        <v>0.9773227590750292</v>
       </c>
     </row>
   </sheetData>
